--- a/Project Documents/Bill of Materials/BillOfMaterials.xlsx
+++ b/Project Documents/Bill of Materials/BillOfMaterials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\GitHub\Alert-Detector\Project Documents\Bill of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CD14BC-9773-4271-A8DE-D466F4F0BCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FE356B-E78B-40E0-9ACD-0CAD6516C4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Price</t>
   </si>
   <si>
-    <t>SIM7020G</t>
-  </si>
-  <si>
-    <t>ESP32-WROOM32D</t>
-  </si>
-  <si>
     <t>1.28i Screen w ESP32C3</t>
   </si>
   <si>
@@ -51,37 +42,49 @@
     <t>Functionality</t>
   </si>
   <si>
-    <t>HMC5883I</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
     <t>$</t>
   </si>
   <si>
-    <t>LTE Connection</t>
-  </si>
-  <si>
     <t>Display/Render/Compute</t>
   </si>
   <si>
     <t>Visualise Distance</t>
   </si>
   <si>
-    <t>Compute/Alert Retrieval</t>
-  </si>
-  <si>
     <t>LED Diffuser</t>
   </si>
   <si>
     <t>Perfect Lighting</t>
+  </si>
+  <si>
+    <t>LILYGO T-SIM7000G</t>
+  </si>
+  <si>
+    <t>BNO085</t>
+  </si>
+  <si>
+    <t>Part Name</t>
+  </si>
+  <si>
+    <t>Compute/LTE/GPS</t>
+  </si>
+  <si>
+    <t>https://vi.aliexpress.com/item/4000542688096.html?spm=a2g0o.order_list.order_list_main.5.68c31802lHYUKR&amp;gatewayAdapt=glo2vnm</t>
+  </si>
+  <si>
+    <t>https://vi.aliexpress.com/item/1005005902501032.html?spm=a2g0o.order_list.order_list_main.10.5aa71802pIyhw3&amp;gatewayAdapt=glo2vnm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,9 +122,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,97 +406,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2">
+        <v>57.56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2">
+        <v>24.99</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Project Documents/Bill of Materials/BillOfMaterials.xlsx
+++ b/Project Documents/Bill of Materials/BillOfMaterials.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\GitHub\Alert-Detector\Project Documents\Bill of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FE356B-E78B-40E0-9ACD-0CAD6516C4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{428D1B5A-70B7-4DC7-8E29-92EE4859BB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4065" yWindow="3750" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,17 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>Price</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>1.28i Screen w ESP32C3</t>
   </si>
   <si>
-    <t>144 LED/m RGB Strip</t>
-  </si>
-  <si>
     <t>Compass</t>
   </si>
   <si>
@@ -45,21 +40,9 @@
     <t>URL</t>
   </si>
   <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>Display/Render/Compute</t>
-  </si>
-  <si>
-    <t>Visualise Distance</t>
-  </si>
-  <si>
     <t>LED Diffuser</t>
   </si>
   <si>
-    <t>Perfect Lighting</t>
-  </si>
-  <si>
     <t>LILYGO T-SIM7000G</t>
   </si>
   <si>
@@ -76,16 +59,98 @@
   </si>
   <si>
     <t>https://vi.aliexpress.com/item/1005005902501032.html?spm=a2g0o.order_list.order_list_main.10.5aa71802pIyhw3&amp;gatewayAdapt=glo2vnm</t>
+  </si>
+  <si>
+    <t>Distribute Lighting</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Audiate Alert Distance</t>
+  </si>
+  <si>
+    <t>Visualise Alert Distance</t>
+  </si>
+  <si>
+    <t>144L/m Side Emitting RGB Strip</t>
+  </si>
+  <si>
+    <t>https://www.superlightingled.com/sk6812-rgb-dc5v-8mm-144ledsm-4020-side-emitting-individually-addressable-led-strip-lights-p-4503.html</t>
+  </si>
+  <si>
+    <t>https://vi.aliexpress.com/item/1005007574801988.html?spm=a2g0o.order_list.order_list_main.48.524d18020P6UOV&amp;gatewayAdapt=glo2vnm</t>
+  </si>
+  <si>
+    <t>Price (AUD with shipping + tax)</t>
+  </si>
+  <si>
+    <t>https://vi.aliexpress.com/item/1005004451720515.html</t>
+  </si>
+  <si>
+    <t>3D Printed Case</t>
+  </si>
+  <si>
+    <t>Combine Components</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>https://github.com/Xinyuan-LilyGO/LilyGO-T-SIM7000G</t>
+  </si>
+  <si>
+    <t>https://github.com/adafruit/Adafruit_BNO08x</t>
+  </si>
+  <si>
+    <t>https://github.com/VIEWESMART/UEDX24240013-MD50ESP32_1.3inch-Knob</t>
+  </si>
+  <si>
+    <t>Total: $161.70</t>
+  </si>
+  <si>
+    <t>https://www.superlightingled.com/PDF/SK6812%20RGB+LED+datasheet+.pdf</t>
+  </si>
+  <si>
+    <t>Render/Control</t>
+  </si>
+  <si>
+    <t>https://core-electronics.com.au/adafruit-stemma-speaker-plug-and-play-audio-amplifier.html</t>
+  </si>
+  <si>
+    <t>https://cdn-learn.adafruit.com/downloads/pdf/adafruit-stemma-speaker.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/VIEWESMART/UEDX24240013-MD50ESP32_1.3inch-Knob/blob/main/information/UEDX24240013-MD50E%20V3.3%20SPEC.pdf</t>
+  </si>
+  <si>
+    <t>https://docs.cirkitdesigner.com/component/6cb86875-6739-408e-baaa-78cacc5bf622/imu</t>
+  </si>
+  <si>
+    <t>https://github.com/Xinyuan-LilyGO/LilyGO-T-SIM7000G/tree/master/docs/SIM7000</t>
+  </si>
+  <si>
+    <t>https://github.com/Electry/Arduino_SK6812</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
+    <t>https://learn.adafruit.com/stemma-audio-amp/arduino</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +162,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,15 +192,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -406,91 +488,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>57.56</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>24.99</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>30.13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>23.6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2">
-        <v>57.56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2">
-        <v>24.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{3F26ED8B-6235-4D7A-8515-01447F66EE77}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{C1AE37B5-6891-43AA-836C-2DF0F66F8761}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{4B6853F4-CB3B-48A8-93BA-256B04578247}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{75F522E2-5EBF-41D0-83D2-2C0101A233FA}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{4B6F256B-1BA8-42A7-B0A6-147DA887C467}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{C9171E11-D354-4EC2-8840-F06BF0541E39}"/>
+    <hyperlink ref="E2" r:id="rId7" xr:uid="{855A1EF2-D863-403F-883D-650C5A1B9316}"/>
+    <hyperlink ref="E3" r:id="rId8" xr:uid="{6EFB2495-C935-425F-B497-2050B3836FF6}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{4DA34EC4-FD7D-4667-A7A7-1570F5A3999C}"/>
+    <hyperlink ref="F5" r:id="rId10" xr:uid="{A813CDDF-1FD4-45AA-9259-FE3518715332}"/>
+    <hyperlink ref="F6" r:id="rId11" xr:uid="{4E123933-AD7C-444E-907A-79B6DB2D0086}"/>
+    <hyperlink ref="F4" r:id="rId12" xr:uid="{DFB3CC3F-81E2-438C-8F2D-62385CB7144A}"/>
+    <hyperlink ref="F3" r:id="rId13" xr:uid="{A11CABA2-478E-4144-BD00-634D00A88970}"/>
+    <hyperlink ref="F2" r:id="rId14" xr:uid="{05C5BFA2-DEB5-4367-AEE4-D290ED85169A}"/>
+    <hyperlink ref="E5" r:id="rId15" xr:uid="{CB9E2C2A-547C-4D1E-B036-FD556746438E}"/>
+    <hyperlink ref="E6" r:id="rId16" xr:uid="{F96CA368-4BD5-41A0-AEE1-B2114FC89A41}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/Project Documents/Bill of Materials/BillOfMaterials.xlsx
+++ b/Project Documents/Bill of Materials/BillOfMaterials.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\GitHub\Alert-Detector\Project Documents\Bill of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{428D1B5A-70B7-4DC7-8E29-92EE4859BB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8994067D-F78D-4AC1-9B3C-9C661BCB740F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="3750" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,9 +63,6 @@
     <t>Distribute Lighting</t>
   </si>
   <si>
-    <t>Speaker</t>
-  </si>
-  <si>
     <t>Audiate Alert Distance</t>
   </si>
   <si>
@@ -140,6 +136,9 @@
   </si>
   <si>
     <t>https://learn.adafruit.com/stemma-audio-amp/arduino</t>
+  </si>
+  <si>
+    <t>Adafruit STEMMA Speaker</t>
   </si>
 </sst>
 </file>
@@ -490,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,13 +506,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -531,10 +530,10 @@
         <v>57.56</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -551,10 +550,10 @@
         <v>24.99</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -562,59 +561,59 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>30.13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>23.6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1">
         <v>12.3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -625,41 +624,41 @@
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>8.1199999999999992</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Project Documents/Bill of Materials/BillOfMaterials.xlsx
+++ b/Project Documents/Bill of Materials/BillOfMaterials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\GitHub\Alert-Detector\Project Documents\Bill of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8994067D-F78D-4AC1-9B3C-9C661BCB740F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC4879B-B46C-475D-AEE6-80FEE1CEAF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
-    <t>1.28i Screen w ESP32C3</t>
-  </si>
-  <si>
     <t>Compass</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Github</t>
-  </si>
-  <si>
     <t>https://github.com/Xinyuan-LilyGO/LilyGO-T-SIM7000G</t>
   </si>
   <si>
@@ -139,6 +133,12 @@
   </si>
   <si>
     <t>Adafruit STEMMA Speaker</t>
+  </si>
+  <si>
+    <t>Github / Code Example</t>
+  </si>
+  <si>
+    <t>Viewe 1.28i Screen w ESP32C3</t>
   </si>
 </sst>
 </file>
@@ -489,176 +489,176 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>57.56</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>24.99</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>30.13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>23.6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1">
         <v>12.3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1">
         <v>8.1199999999999992</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Project Documents/Bill of Materials/BillOfMaterials.xlsx
+++ b/Project Documents/Bill of Materials/BillOfMaterials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\GitHub\Alert-Detector\Project Documents\Bill of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC4879B-B46C-475D-AEE6-80FEE1CEAF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A11C0C9-9166-4880-8AA1-597A28F80F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>LILYGO T-SIM7000G</t>
   </si>
   <si>
-    <t>BNO085</t>
-  </si>
-  <si>
     <t>Part Name</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>https://vi.aliexpress.com/item/4000542688096.html?spm=a2g0o.order_list.order_list_main.5.68c31802lHYUKR&amp;gatewayAdapt=glo2vnm</t>
   </si>
   <si>
-    <t>https://vi.aliexpress.com/item/1005005902501032.html?spm=a2g0o.order_list.order_list_main.10.5aa71802pIyhw3&amp;gatewayAdapt=glo2vnm</t>
-  </si>
-  <si>
     <t>Distribute Lighting</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
     <t>https://github.com/VIEWESMART/UEDX24240013-MD50ESP32_1.3inch-Knob</t>
   </si>
   <si>
-    <t>Total: $161.70</t>
-  </si>
-  <si>
     <t>https://www.superlightingled.com/PDF/SK6812%20RGB+LED+datasheet+.pdf</t>
   </si>
   <si>
@@ -139,6 +130,15 @@
   </si>
   <si>
     <t>Viewe 1.28i Screen w ESP32C3</t>
+  </si>
+  <si>
+    <t>BNO086</t>
+  </si>
+  <si>
+    <t>https://vi.aliexpress.com/item/1005006887288697.html?spm=a2g0o.order_list.order_list_main.23.71a618020BCGd8&amp;gatewayAdapt=glo2vnm</t>
+  </si>
+  <si>
+    <t>Total: $176.30</t>
   </si>
 </sst>
 </file>
@@ -490,14 +490,14 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -506,13 +506,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -521,99 +521,99 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>57.56</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1">
-        <v>24.99</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
         <v>30.13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>23.6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1">
         <v>12.3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -621,44 +621,44 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
         <v>8.1199999999999992</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -666,19 +666,19 @@
     <hyperlink ref="C6" r:id="rId1" xr:uid="{3F26ED8B-6235-4D7A-8515-01447F66EE77}"/>
     <hyperlink ref="C5" r:id="rId2" xr:uid="{C1AE37B5-6891-43AA-836C-2DF0F66F8761}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{4B6853F4-CB3B-48A8-93BA-256B04578247}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{75F522E2-5EBF-41D0-83D2-2C0101A233FA}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{4B6F256B-1BA8-42A7-B0A6-147DA887C467}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{C9171E11-D354-4EC2-8840-F06BF0541E39}"/>
-    <hyperlink ref="E2" r:id="rId7" xr:uid="{855A1EF2-D863-403F-883D-650C5A1B9316}"/>
-    <hyperlink ref="E3" r:id="rId8" xr:uid="{6EFB2495-C935-425F-B497-2050B3836FF6}"/>
-    <hyperlink ref="E4" r:id="rId9" xr:uid="{4DA34EC4-FD7D-4667-A7A7-1570F5A3999C}"/>
-    <hyperlink ref="F5" r:id="rId10" xr:uid="{A813CDDF-1FD4-45AA-9259-FE3518715332}"/>
-    <hyperlink ref="F6" r:id="rId11" xr:uid="{4E123933-AD7C-444E-907A-79B6DB2D0086}"/>
-    <hyperlink ref="F4" r:id="rId12" xr:uid="{DFB3CC3F-81E2-438C-8F2D-62385CB7144A}"/>
-    <hyperlink ref="F3" r:id="rId13" xr:uid="{A11CABA2-478E-4144-BD00-634D00A88970}"/>
-    <hyperlink ref="F2" r:id="rId14" xr:uid="{05C5BFA2-DEB5-4367-AEE4-D290ED85169A}"/>
-    <hyperlink ref="E5" r:id="rId15" xr:uid="{CB9E2C2A-547C-4D1E-B036-FD556746438E}"/>
-    <hyperlink ref="E6" r:id="rId16" xr:uid="{F96CA368-4BD5-41A0-AEE1-B2114FC89A41}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{4B6F256B-1BA8-42A7-B0A6-147DA887C467}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{C9171E11-D354-4EC2-8840-F06BF0541E39}"/>
+    <hyperlink ref="E2" r:id="rId6" xr:uid="{855A1EF2-D863-403F-883D-650C5A1B9316}"/>
+    <hyperlink ref="E3" r:id="rId7" xr:uid="{6EFB2495-C935-425F-B497-2050B3836FF6}"/>
+    <hyperlink ref="E4" r:id="rId8" xr:uid="{4DA34EC4-FD7D-4667-A7A7-1570F5A3999C}"/>
+    <hyperlink ref="F5" r:id="rId9" xr:uid="{A813CDDF-1FD4-45AA-9259-FE3518715332}"/>
+    <hyperlink ref="F6" r:id="rId10" xr:uid="{4E123933-AD7C-444E-907A-79B6DB2D0086}"/>
+    <hyperlink ref="F4" r:id="rId11" xr:uid="{DFB3CC3F-81E2-438C-8F2D-62385CB7144A}"/>
+    <hyperlink ref="F3" r:id="rId12" xr:uid="{A11CABA2-478E-4144-BD00-634D00A88970}"/>
+    <hyperlink ref="F2" r:id="rId13" xr:uid="{05C5BFA2-DEB5-4367-AEE4-D290ED85169A}"/>
+    <hyperlink ref="E5" r:id="rId14" xr:uid="{CB9E2C2A-547C-4D1E-B036-FD556746438E}"/>
+    <hyperlink ref="E6" r:id="rId15" xr:uid="{F96CA368-4BD5-41A0-AEE1-B2114FC89A41}"/>
+    <hyperlink ref="C3" r:id="rId16" xr:uid="{EA231AF5-B289-4A06-BC69-C40335439D29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>
